--- a/outputs/bom/kicost-bom.xlsx
+++ b/outputs/bom/kicost-bom.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty" localSheetId="0">'kicost-bom'!$G$1</definedName>
-    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">'kicost-bom'!$G$22</definedName>
+    <definedName name="PURCHASE_DESCRIPTION" localSheetId="0">'kicost-bom'!$G$23</definedName>
     <definedName name="TotalCost" localSheetId="0">'kicost-bom'!$G$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -240,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>795 In voorraad</t>
+          <t>643 In voorraad</t>
         </r>
       </text>
     </comment>
@@ -328,7 +328,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>951042 In voorraad</t>
+          <t>928170 In voorraad</t>
         </r>
       </text>
     </comment>
@@ -376,7 +376,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>17544 In voorraad</t>
+          <t>16674 In voorraad</t>
         </r>
       </text>
     </comment>
@@ -426,11 +426,54 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Geen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks (EUR):
+  Qty  -  Unit€  -  Ext€
+================
+   700   €3.04  €2,128.00
+  1050   €2.59  €2,719.50</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Desc: AC-stroomsnoeren AC Cord North America, C5 for C6 inlet, 18/3 SPT-2, 9', Blue</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>5668 In voorraad</t>
         </r>
       </text>
     </comment>
-    <comment ref="J11" authorId="0">
+    <comment ref="J12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0">
+    <comment ref="M12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -466,20 +509,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>203037 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J12" authorId="0">
+    <comment ref="H13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>190615 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -499,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M12" authorId="0">
+    <comment ref="M13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -512,20 +555,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>64712 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J13" authorId="0">
+    <comment ref="H14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>64642 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -541,13 +584,14 @@
     10   €0.01      €0.10
    100   €0.01      €0.70
   1000   €0.01      €6.00
-  5000   €0.00     €20.00
- 10000   €0.00     €30.00
+  5000   €0.01     €30.00
+ 10000   €0.01     €50.00
+ 25000   €0.00     €75.00
 100000   €0.00    €200.00</t>
         </r>
       </text>
     </comment>
-    <comment ref="M13" authorId="0">
+    <comment ref="M14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H14" authorId="0">
+    <comment ref="H15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J14" authorId="0">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M14" authorId="0">
+    <comment ref="M15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -608,20 +652,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>5329 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J15" authorId="0">
+    <comment ref="H16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2166 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M15" authorId="0">
+    <comment ref="M16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -654,20 +698,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>102 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J16" authorId="0">
+    <comment ref="H17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>96 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M16" authorId="0">
+    <comment ref="M17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -696,20 +740,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>4513 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J17" authorId="0">
+    <comment ref="H18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3347 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -721,18 +765,19 @@
           <t>Qty/Price Breaks (EUR):
   Qty  -  Unit€  -  Ext€
 ================
-     1   €1.57      €1.57
-    10   €1.29     €12.90
-   100   €1.19    €119.00
-   500   €1.15    €575.00
-  1000   €1.10  €1,100.00
+     1   €1.39      €1.39
+    10   €1.24     €12.40
+   100   €1.21    €121.00
+   250   €1.17    €292.50
+   500   €1.14    €570.00
+  1000   €1.11  €1,110.00
   3000   €1.06  €3,180.00
-  6000   €1.00  €5,988.00
-  9000   €0.95  €8,550.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M17" authorId="0">
+  6000   €1.03  €6,180.00
+  9000   €0.99  €8,892.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,20 +790,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>3337 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J18" authorId="0">
+    <comment ref="H19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3188 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M18" authorId="0">
+    <comment ref="M19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -794,20 +839,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="H19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>8673 In voorraad</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J19" authorId="0">
+    <comment ref="H20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>8371 In voorraad</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M19" authorId="0">
+    <comment ref="M20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -842,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="F22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -855,7 +900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0">
+    <comment ref="I22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -868,7 +913,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F22" authorId="0">
+    <comment ref="F23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -886,7 +931,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>Global Part Info</t>
   </si>
@@ -939,6 +984,12 @@
     <t>CL21B475KPFNFNE</t>
   </si>
   <si>
+    <t>CONN2</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -1023,6 +1074,9 @@
     <t>187-CL21B475KPFNFNE</t>
   </si>
   <si>
+    <t>179-AC-C5-L-BNA</t>
+  </si>
+  <si>
     <t>781-SI2367DS-GE3</t>
   </si>
   <si>
@@ -1071,7 +1125,7 @@
     <t>Prj date:</t>
   </si>
   <si>
-    <t>2025-02-24 17:29:14 (file)</t>
+    <t>2025-03-11 14:46:47 (file)</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -1086,7 +1140,7 @@
     <t>$ date:</t>
   </si>
   <si>
-    <t>2025-02-25 21:25:38</t>
+    <t>2025-03-12 16:15:15</t>
   </si>
   <si>
     <t>KiCost® v1.1.19</t>
@@ -1298,14 +1352,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFAAAAAA"/>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FFAAAAAA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1599,7 +1653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
@@ -1626,13 +1680,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G1" s="3">
         <v>100</v>
@@ -1640,46 +1694,46 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G2" s="4">
         <f>TotalCost/BoardQty</f>
-        <v>97.417</v>
+        <v>97.437</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G3" s="5">
-        <f>SUM(G7:G19)</f>
-        <v>9741.7</v>
+        <f>SUM(G7:G20)</f>
+        <v>9743.7</v>
       </c>
       <c r="L3" s="5">
-        <f>SUM(L7:L19)</f>
-        <v>9741.7</v>
+        <f>SUM(L7:L20)</f>
+        <v>9743.7</v>
       </c>
       <c r="M3" s="6" t="str">
-        <f>(COUNTA(L7:L19)&amp;" of "&amp;ROWS(L7:L19)&amp;" parts found")</f>
-        <v>13 of 13 parts found</v>
+        <f>(COUNTA(L7:L20)&amp;" of "&amp;ROWS(L7:L20)&amp;" parts found")</f>
+        <v>14 of 14 parts found</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1693,7 +1747,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -1724,22 +1778,22 @@
         <v>7</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1768,7 +1822,7 @@
         <v>262.0</v>
       </c>
       <c r="H7" s="10">
-        <v>795</v>
+        <v>643</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="11">
@@ -1783,7 +1837,7 @@
         <v>262.0</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1812,7 +1866,7 @@
         <v>8189.0</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="11">
@@ -1827,7 +1881,7 @@
         <v>8189.0</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1856,7 +1910,7 @@
         <v>7.6</v>
       </c>
       <c r="H9" s="10">
-        <v>951042</v>
+        <v>928170</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="11">
@@ -1871,7 +1925,7 @@
         <v>7.6</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1900,7 +1954,7 @@
         <v>21.0</v>
       </c>
       <c r="H10" s="10">
-        <v>17544</v>
+        <v>16674</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="11">
@@ -1915,7 +1969,7 @@
         <v>21.0</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1937,29 +1991,29 @@
       </c>
       <c r="F11" s="11">
         <f>IF(MIN(J11)&lt;&gt;0,MIN(J11),"")</f>
-        <v>0.245</v>
+        <v/>
       </c>
       <c r="G11" s="12">
         <f>IF(AND(ISNUMBER(E11),ISNUMBER(F11)),E11*F11,"")</f>
-        <v>24.5</v>
-      </c>
-      <c r="H11" s="10">
-        <v>5668</v>
+        <v/>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="11">
-        <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),LOOKUP(IF(I11="",E11,I11),{0,1,10,100,500,1000,3000,6000,9000},{0.0,0.485,0.333,0.245,0.189,0.155,0.133,0.127,0.12}),"MOQ="&amp;K11),"")</f>
-        <v>0.245</v>
+        <f>IFERROR(IF(OR(I11&gt;=K11,E11&gt;=K11),LOOKUP(IF(I11="",E11,I11),{0,1,700,1050},{0.0,3.04,3.04,2.59}),"MOQ="&amp;K11),"")</f>
+        <v/>
       </c>
       <c r="K11" s="10">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="L11" s="12">
         <f>IFERROR(IF(I11="",E11,I11)*J11,"")</f>
-        <v>24.5</v>
+        <v/>
       </c>
       <c r="M11" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1976,34 +2030,34 @@
         <v>20</v>
       </c>
       <c r="E12" s="10">
-        <f>CEILING(BoardQty*3.0,1)</f>
-        <v>300</v>
+        <f>CEILING(BoardQty*1.0,1)</f>
+        <v>100</v>
       </c>
       <c r="F12" s="11">
         <f>IF(MIN(J12)&lt;&gt;0,MIN(J12),"")</f>
-        <v>0.008</v>
+        <v>0.245</v>
       </c>
       <c r="G12" s="12">
         <f>IF(AND(ISNUMBER(E12),ISNUMBER(F12)),E12*F12,"")</f>
-        <v>2.4</v>
+        <v>24.5</v>
       </c>
       <c r="H12" s="10">
-        <v>203037</v>
+        <v>5668</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="11">
-        <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,5000},{0.0,0.095,0.009,0.008,0.005,0.003}),"MOQ="&amp;K12),"")</f>
-        <v>0.008</v>
+        <f>IFERROR(IF(OR(I12&gt;=K12,E12&gt;=K12),LOOKUP(IF(I12="",E12,I12),{0,1,10,100,500,1000,3000,6000,9000},{0.0,0.485,0.333,0.245,0.189,0.155,0.133,0.127,0.12}),"MOQ="&amp;K12),"")</f>
+        <v>0.245</v>
       </c>
       <c r="K12" s="10">
         <v>1</v>
       </c>
       <c r="L12" s="12">
         <f>IFERROR(IF(I12="",E12,I12)*J12,"")</f>
-        <v>2.4</v>
+        <v>24.5</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -2020,34 +2074,34 @@
         <v>22</v>
       </c>
       <c r="E13" s="10">
-        <f>CEILING(BoardQty*1.0,1)</f>
-        <v>100</v>
+        <f>CEILING(BoardQty*3.0,1)</f>
+        <v>300</v>
       </c>
       <c r="F13" s="11">
         <f>IF(MIN(J13)&lt;&gt;0,MIN(J13),"")</f>
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="G13" s="12">
         <f>IF(AND(ISNUMBER(E13),ISNUMBER(F13)),E13*F13,"")</f>
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H13" s="10">
-        <v>64712</v>
+        <v>190615</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="11">
-        <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),LOOKUP(IF(I13="",E13,I13),{0,1,10,100,1000,5000,10000,100000},{0.0,0.095,0.01,0.007,0.006,0.004,0.003,0.002}),"MOQ="&amp;K13),"")</f>
-        <v>0.007</v>
+        <f>IFERROR(IF(OR(I13&gt;=K13,E13&gt;=K13),LOOKUP(IF(I13="",E13,I13),{0,1,10,100,500,5000},{0.0,0.095,0.009,0.008,0.005,0.003}),"MOQ="&amp;K13),"")</f>
+        <v>0.008</v>
       </c>
       <c r="K13" s="10">
         <v>1</v>
       </c>
       <c r="L13" s="12">
         <f>IFERROR(IF(I13="",E13,I13)*J13,"")</f>
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -2069,29 +2123,29 @@
       </c>
       <c r="F14" s="11">
         <f>IF(MIN(J14)&lt;&gt;0,MIN(J14),"")</f>
-        <v>0.466</v>
+        <v>0.007</v>
       </c>
       <c r="G14" s="12">
         <f>IF(AND(ISNUMBER(E14),ISNUMBER(F14)),E14*F14,"")</f>
-        <v>46.6</v>
+        <v>0.7</v>
       </c>
       <c r="H14" s="10">
-        <v>2739</v>
+        <v>64642</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="11">
-        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,25,50,100,500,1000,3300},{0.0,0.551,0.548,0.514,0.466,0.425,0.369,0.33}),"MOQ="&amp;K14),"")</f>
-        <v>0.466</v>
+        <f>IFERROR(IF(OR(I14&gt;=K14,E14&gt;=K14),LOOKUP(IF(I14="",E14,I14),{0,1,10,100,1000,5000,10000,25000,100000},{0.0,0.095,0.01,0.007,0.006,0.006,0.005,0.003,0.002}),"MOQ="&amp;K14),"")</f>
+        <v>0.007</v>
       </c>
       <c r="K14" s="10">
         <v>1</v>
       </c>
       <c r="L14" s="12">
         <f>IFERROR(IF(I14="",E14,I14)*J14,"")</f>
-        <v>46.6</v>
+        <v>0.7</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2113,29 +2167,29 @@
       </c>
       <c r="F15" s="11">
         <f>IF(MIN(J15)&lt;&gt;0,MIN(J15),"")</f>
-        <v>0.469</v>
+        <v>0.466</v>
       </c>
       <c r="G15" s="12">
         <f>IF(AND(ISNUMBER(E15),ISNUMBER(F15)),E15*F15,"")</f>
-        <v>46.9</v>
+        <v>46.6</v>
       </c>
       <c r="H15" s="10">
-        <v>5329</v>
+        <v>2739</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="11">
-        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),LOOKUP(IF(I15="",E15,I15),{0,1,25,50,250,2900},{0.0,0.513,0.492,0.469,0.425,0.31}),"MOQ="&amp;K15),"")</f>
-        <v>0.469</v>
+        <f>IFERROR(IF(OR(I15&gt;=K15,E15&gt;=K15),LOOKUP(IF(I15="",E15,I15),{0,1,25,50,100,500,1000,3300},{0.0,0.551,0.548,0.514,0.466,0.425,0.369,0.33}),"MOQ="&amp;K15),"")</f>
+        <v>0.466</v>
       </c>
       <c r="K15" s="10">
         <v>1</v>
       </c>
       <c r="L15" s="12">
         <f>IFERROR(IF(I15="",E15,I15)*J15,"")</f>
-        <v>46.9</v>
+        <v>46.6</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2157,29 +2211,29 @@
       </c>
       <c r="F16" s="11">
         <f>IF(MIN(J16)&lt;&gt;0,MIN(J16),"")</f>
-        <v>7.64</v>
+        <v>0.469</v>
       </c>
       <c r="G16" s="12">
         <f>IF(AND(ISNUMBER(E16),ISNUMBER(F16)),E16*F16,"")</f>
-        <v>764.0</v>
+        <v>46.9</v>
       </c>
       <c r="H16" s="10">
-        <v>102</v>
+        <v>2166</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="11">
-        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1},{0.0,7.64}),"MOQ="&amp;K16),"")</f>
-        <v>7.64</v>
+        <f>IFERROR(IF(OR(I16&gt;=K16,E16&gt;=K16),LOOKUP(IF(I16="",E16,I16),{0,1,25,50,250,2900},{0.0,0.513,0.492,0.469,0.425,0.31}),"MOQ="&amp;K16),"")</f>
+        <v>0.469</v>
       </c>
       <c r="K16" s="10">
         <v>1</v>
       </c>
       <c r="L16" s="12">
         <f>IFERROR(IF(I16="",E16,I16)*J16,"")</f>
-        <v>764.0</v>
+        <v>46.9</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2201,29 +2255,29 @@
       </c>
       <c r="F17" s="11">
         <f>IF(MIN(J17)&lt;&gt;0,MIN(J17),"")</f>
-        <v>1.19</v>
+        <v>7.64</v>
       </c>
       <c r="G17" s="12">
         <f>IF(AND(ISNUMBER(E17),ISNUMBER(F17)),E17*F17,"")</f>
-        <v>119.0</v>
+        <v>764.0</v>
       </c>
       <c r="H17" s="10">
-        <v>4513</v>
+        <v>96</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="11">
-        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1,10,100,500,1000,3000,6000,9000},{0.0,1.57,1.29,1.19,1.15,1.1,1.06,0.998,0.95}),"MOQ="&amp;K17),"")</f>
-        <v>1.19</v>
+        <f>IFERROR(IF(OR(I17&gt;=K17,E17&gt;=K17),LOOKUP(IF(I17="",E17,I17),{0,1},{0.0,7.64}),"MOQ="&amp;K17),"")</f>
+        <v>7.64</v>
       </c>
       <c r="K17" s="10">
         <v>1</v>
       </c>
       <c r="L17" s="12">
         <f>IFERROR(IF(I17="",E17,I17)*J17,"")</f>
-        <v>119.0</v>
+        <v>764.0</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2245,29 +2299,29 @@
       </c>
       <c r="F18" s="11">
         <f>IF(MIN(J18)&lt;&gt;0,MIN(J18),"")</f>
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="G18" s="12">
         <f>IF(AND(ISNUMBER(E18),ISNUMBER(F18)),E18*F18,"")</f>
-        <v>116.0</v>
+        <v>121.0</v>
       </c>
       <c r="H18" s="10">
-        <v>3337</v>
+        <v>3347</v>
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="11">
-        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,10,100,250,500,1000,2500,5000},{0.0,1.47,1.23,1.16,1.14,1.07,1.06,0.988,0.911}),"MOQ="&amp;K18),"")</f>
-        <v>1.16</v>
+        <f>IFERROR(IF(OR(I18&gt;=K18,E18&gt;=K18),LOOKUP(IF(I18="",E18,I18),{0,1,10,100,250,500,1000,3000,6000,9000},{0.0,1.39,1.24,1.21,1.17,1.14,1.11,1.06,1.03,0.988}),"MOQ="&amp;K18),"")</f>
+        <v>1.21</v>
       </c>
       <c r="K18" s="10">
         <v>1</v>
       </c>
       <c r="L18" s="12">
         <f>IFERROR(IF(I18="",E18,I18)*J18,"")</f>
-        <v>116.0</v>
+        <v>121.0</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2289,78 +2343,112 @@
       </c>
       <c r="F19" s="11">
         <f>IF(MIN(J19)&lt;&gt;0,MIN(J19),"")</f>
-        <v>1.42</v>
+        <v>1.16</v>
       </c>
       <c r="G19" s="12">
         <f>IF(AND(ISNUMBER(E19),ISNUMBER(F19)),E19*F19,"")</f>
-        <v>142.0</v>
+        <v>116.0</v>
       </c>
       <c r="H19" s="10">
-        <v>8673</v>
+        <v>3188</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="11">
-        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),LOOKUP(IF(I19="",E19,I19),{0,1,10,100,500,1000,3500,7000},{0.0,1.79,1.49,1.42,1.28,1.24,1.13,1.1}),"MOQ="&amp;K19),"")</f>
-        <v>1.42</v>
+        <f>IFERROR(IF(OR(I19&gt;=K19,E19&gt;=K19),LOOKUP(IF(I19="",E19,I19),{0,1,10,100,250,500,1000,2500,5000},{0.0,1.47,1.23,1.16,1.14,1.07,1.06,0.988,0.911}),"MOQ="&amp;K19),"")</f>
+        <v>1.16</v>
       </c>
       <c r="K19" s="10">
         <v>1</v>
       </c>
       <c r="L19" s="12">
         <f>IFERROR(IF(I19="",E19,I19)*J19,"")</f>
+        <v>116.0</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="10">
+        <f>CEILING(BoardQty*1.0,1)</f>
+        <v>100</v>
+      </c>
+      <c r="F20" s="11">
+        <f>IF(MIN(J20)&lt;&gt;0,MIN(J20),"")</f>
+        <v>1.42</v>
+      </c>
+      <c r="G20" s="12">
+        <f>IF(AND(ISNUMBER(E20),ISNUMBER(F20)),E20*F20,"")</f>
         <v>142.0</v>
       </c>
-      <c r="M19" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="F21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="5">
-        <f>SUM(L21)</f>
+      <c r="H20" s="10">
+        <v>8371</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11">
+        <f>IFERROR(IF(OR(I20&gt;=K20,E20&gt;=K20),LOOKUP(IF(I20="",E20,I20),{0,1,10,100,500,1000,3500,7000},{0.0,1.79,1.49,1.42,1.28,1.24,1.13,1.1}),"MOQ="&amp;K20),"")</f>
+        <v>1.42</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <f>IFERROR(IF(I20="",E20,I20)*J20,"")</f>
+        <v>142.0</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="F22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="5">
+        <f>SUM(L22)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I21" s="6">
-        <f>IFERROR(IF(COUNTIF(I7:I19,"&gt;0")&gt;0,COUNTIF(I7:I19,"&gt;0")&amp;" of "&amp;(ROWS(K7:K19)-COUNTBLANK(K7:K19))&amp;" parts purchased",""),"")</f>
+      <c r="H22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="6">
+        <f>IFERROR(IF(COUNTIF(I7:I20,"&gt;0")&gt;0,COUNTIF(I7:I20,"&gt;0")&amp;" of "&amp;(ROWS(K7:K20)-COUNTBLANK(K7:K20))&amp;" parts purchased",""),"")</f>
         <v/>
       </c>
-      <c r="L21" s="5">
-        <f>SUMIF(I7:I19,"&gt;0",L7:L19)</f>
+      <c r="L22" s="5">
+        <f>SUMIF(I7:I20,"&gt;0",L7:L20)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="I22" s="16">
-        <f>CONCATENATE(I36,I37,I38,I39,I40,I41,I42,I43,I44,I45,I46,I47,I48)</f>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="16">
+        <f>CONCATENATE(I38,I39,I40,I41,I42,I43,I44,I45,I46,I47,I48,I49,I50,I51)</f>
         <v/>
       </c>
     </row>
-    <row r="36" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I36" t="str">
-        <f t="array" ref="I36:I48">IF(ISNUMBER(I7:I19)*(I7:I19&gt;=K7:K19)*(M7:M19&lt;&gt;""),M7:M19&amp;"|"&amp;TEXT(ROUNDUP(I7:I19/IF(ISNUMBER(K7:K19),K7:K19,1),0)*K7:K19,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A19,"|",";")," ","_"),"
+    <row r="38" spans="9:9" ht="30" hidden="1" customHeight="1">
+      <c r="I38" t="str">
+        <f t="array" ref="I38:I51">IF(ISNUMBER(I7:I20)*(I7:I20&gt;=K7:K20)*(M7:M20&lt;&gt;""),M7:M20&amp;"|"&amp;TEXT(ROUNDUP(I7:I20/IF(ISNUMBER(K7:K20),K7:K20,1),0)*K7:K20,"##0")&amp;"|"&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(IF(PURCHASE_DESCRIPTION&lt;&gt;"",PURCHASE_DESCRIPTION&amp;":","")&amp;A7:A20,"|",";")," ","_"),"
 ","_")&amp;CHAR(10),"")</f>
         <v/>
-      </c>
-    </row>
-    <row r="37" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" ht="30" hidden="1" customHeight="1">
-      <c r="I38">
-        <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:9" ht="30" hidden="1" customHeight="1">
@@ -2410,6 +2498,21 @@
     </row>
     <row r="48" spans="9:9" ht="30" hidden="1" customHeight="1">
       <c r="I48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:9" ht="30" hidden="1" customHeight="1">
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:9" ht="30" hidden="1" customHeight="1">
+      <c r="I50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="9:9" ht="30" hidden="1" customHeight="1">
+      <c r="I51">
         <v>0</v>
       </c>
     </row>
@@ -2417,187 +2520,201 @@
   <mergeCells count="3">
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="H5:M5"/>
-    <mergeCell ref="I22:L35"/>
+    <mergeCell ref="I23:L37"/>
   </mergeCells>
   <conditionalFormatting sqref="E10">
-    <cfRule type="expression" dxfId="2" priority="39">
+    <cfRule type="expression" dxfId="3" priority="42">
       <formula>AND(ISBLANK(D10),ISBLANK(L10))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="40">
+    <cfRule type="expression" dxfId="1" priority="43">
       <formula>IF(SUM(H10)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="greaterThan">
       <formula>SUM(H10)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="45" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J10),I10,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="expression" dxfId="2" priority="43">
+    <cfRule type="expression" dxfId="3" priority="46">
       <formula>AND(ISBLANK(D11),ISBLANK(L11))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="44">
+    <cfRule type="expression" dxfId="1" priority="47">
       <formula>IF(SUM(H11)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="48" operator="greaterThan">
       <formula>SUM(H11)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="49" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J11),I11,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="expression" dxfId="2" priority="47">
+    <cfRule type="expression" dxfId="3" priority="50">
       <formula>AND(ISBLANK(D12),ISBLANK(L12))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="48">
+    <cfRule type="expression" dxfId="1" priority="51">
       <formula>IF(SUM(H12)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="52" operator="greaterThan">
       <formula>SUM(H12)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="53" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J12),I12,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="expression" dxfId="2" priority="51">
+    <cfRule type="expression" dxfId="3" priority="54">
       <formula>AND(ISBLANK(D13),ISBLANK(L13))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="52">
+    <cfRule type="expression" dxfId="1" priority="55">
       <formula>IF(SUM(H13)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="56" operator="greaterThan">
       <formula>SUM(H13)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="57" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J13),I13,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="expression" dxfId="2" priority="55">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>AND(ISBLANK(D14),ISBLANK(L14))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="56">
+    <cfRule type="expression" dxfId="1" priority="59">
       <formula>IF(SUM(H14)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="60" operator="greaterThan">
       <formula>SUM(H14)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="58" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="61" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J14),I14,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="expression" dxfId="2" priority="59">
+    <cfRule type="expression" dxfId="3" priority="62">
       <formula>AND(ISBLANK(D15),ISBLANK(L15))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="60">
+    <cfRule type="expression" dxfId="1" priority="63">
       <formula>IF(SUM(H15)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="64" operator="greaterThan">
       <formula>SUM(H15)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="65" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J15),I15,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="expression" dxfId="2" priority="63">
+    <cfRule type="expression" dxfId="3" priority="66">
       <formula>AND(ISBLANK(D16),ISBLANK(L16))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="64">
+    <cfRule type="expression" dxfId="1" priority="67">
       <formula>IF(SUM(H16)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="68" operator="greaterThan">
       <formula>SUM(H16)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="69" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J16),I16,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="expression" dxfId="2" priority="67">
+    <cfRule type="expression" dxfId="3" priority="70">
       <formula>AND(ISBLANK(D17),ISBLANK(L17))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="68">
+    <cfRule type="expression" dxfId="1" priority="71">
       <formula>IF(SUM(H17)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="72" operator="greaterThan">
       <formula>SUM(H17)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="70" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="73" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J17),I17,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="expression" dxfId="2" priority="71">
+    <cfRule type="expression" dxfId="3" priority="74">
       <formula>AND(ISBLANK(D18),ISBLANK(L18))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="72">
+    <cfRule type="expression" dxfId="1" priority="75">
       <formula>IF(SUM(H18)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="76" operator="greaterThan">
       <formula>SUM(H18)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="74" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="77" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J18),I18,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="expression" dxfId="2" priority="75">
+    <cfRule type="expression" dxfId="3" priority="78">
       <formula>AND(ISBLANK(D19),ISBLANK(L19))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="76">
+    <cfRule type="expression" dxfId="1" priority="79">
       <formula>IF(SUM(H19)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="80" operator="greaterThan">
       <formula>SUM(H19)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="78" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="81" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J19),I19,0))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="3" priority="82">
+      <formula>AND(ISBLANK(D20),ISBLANK(L20))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="83">
+      <formula>IF(SUM(H20)=0,1,0)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="84" operator="greaterThan">
+      <formula>SUM(H20)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="85" operator="greaterThan">
+      <formula>SUM(IF(ISNUMBER(J20),I20,0))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="2" priority="27">
+    <cfRule type="expression" dxfId="3" priority="30">
       <formula>AND(ISBLANK(D7),ISBLANK(L7))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="28">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>IF(SUM(H7)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="32" operator="greaterThan">
       <formula>SUM(H7)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="33" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J7),I7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="expression" dxfId="2" priority="31">
+    <cfRule type="expression" dxfId="3" priority="34">
       <formula>AND(ISBLANK(D8),ISBLANK(L8))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="32">
+    <cfRule type="expression" dxfId="1" priority="35">
       <formula>IF(SUM(H8)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="greaterThan">
       <formula>SUM(H8)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="37" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J8),I8,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="expression" dxfId="2" priority="35">
+    <cfRule type="expression" dxfId="3" priority="38">
       <formula>AND(ISBLANK(D9),ISBLANK(L9))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="1" priority="39">
       <formula>IF(SUM(H9)=0,1,0)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="40" operator="greaterThan">
       <formula>SUM(H9)</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="41" operator="greaterThan">
       <formula>SUM(IF(ISNUMBER(J9),I9,0))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2612,43 +2729,48 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="lessThan">
       <formula>E12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="14" operator="lessThan">
       <formula>E13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="lessThan">
       <formula>E14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="18" operator="lessThan">
       <formula>E15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="20" operator="lessThan">
       <formula>E16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="22" operator="lessThan">
       <formula>E17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="24" operator="lessThan">
       <formula>E18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="lessThan">
       <formula>E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="0" priority="28" operator="lessThan">
+      <formula>E20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
@@ -2672,48 +2794,56 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>AND(I11&gt;0,MOD(I11,K11)&lt;&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>AND(NOT(ISBLANK(I11)),OR(H11="NonStk",I11&gt;H11))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="expression" dxfId="1" priority="12">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>AND(NOT(ISBLANK(I12)),OR(H12="NonStk",I12&gt;H12))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>AND(NOT(ISBLANK(I13)),OR(H13="NonStk",I13&gt;H13))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="1" priority="17">
       <formula>AND(NOT(ISBLANK(I14)),OR(H14="NonStk",I14&gt;H14))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="1" priority="19">
       <formula>AND(NOT(ISBLANK(I15)),OR(H15="NonStk",I15&gt;H15))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="expression" dxfId="1" priority="20">
+    <cfRule type="expression" dxfId="1" priority="21">
       <formula>AND(NOT(ISBLANK(I16)),OR(H16="NonStk",I16&gt;H16))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17">
-    <cfRule type="expression" dxfId="1" priority="22">
+    <cfRule type="expression" dxfId="1" priority="23">
       <formula>AND(NOT(ISBLANK(I17)),OR(H17="NonStk",I17&gt;H17))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="1" priority="25">
       <formula>AND(NOT(ISBLANK(I18)),OR(H18="NonStk",I18&gt;H18))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19">
-    <cfRule type="expression" dxfId="1" priority="26">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(NOT(ISBLANK(I19)),OR(H19="NonStk",I19&gt;H19))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="expression" dxfId="1" priority="29">
+      <formula>AND(NOT(ISBLANK(I20)),OR(H20="NonStk",I20&gt;H20))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
@@ -2739,23 +2869,25 @@
     <hyperlink ref="M9" r:id="rId5"/>
     <hyperlink ref="D10" r:id="rId6"/>
     <hyperlink ref="M10" r:id="rId7"/>
-    <hyperlink ref="M11" r:id="rId8"/>
-    <hyperlink ref="D12" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId8"/>
+    <hyperlink ref="M11" r:id="rId9"/>
     <hyperlink ref="M12" r:id="rId10"/>
     <hyperlink ref="D13" r:id="rId11"/>
     <hyperlink ref="M13" r:id="rId12"/>
-    <hyperlink ref="M14" r:id="rId13"/>
-    <hyperlink ref="M15" r:id="rId14"/>
-    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="M14" r:id="rId14"/>
+    <hyperlink ref="M15" r:id="rId15"/>
     <hyperlink ref="M16" r:id="rId16"/>
-    <hyperlink ref="M17" r:id="rId17"/>
-    <hyperlink ref="D18" r:id="rId18"/>
+    <hyperlink ref="D17" r:id="rId17"/>
+    <hyperlink ref="M17" r:id="rId18"/>
     <hyperlink ref="M18" r:id="rId19"/>
     <hyperlink ref="D19" r:id="rId20"/>
     <hyperlink ref="M19" r:id="rId21"/>
-    <hyperlink ref="H21" r:id="rId22"/>
+    <hyperlink ref="D20" r:id="rId22"/>
+    <hyperlink ref="M20" r:id="rId23"/>
+    <hyperlink ref="H22" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId23"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>